--- a/Expedia_automation/Data_sheets/Data_sheets_expedia.xlsx
+++ b/Expedia_automation/Data_sheets/Data_sheets_expedia.xlsx
@@ -1,76 +1,129 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Selenium\Selenium projects\Expedia_automation\Data_sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC5A87A-7F27-4736-847D-DD8940079D36}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E08E5643-6BB5-44A4-8D72-793192AA5D9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="FlightsOnlyPositive" sheetId="1" r:id="rId1"/>
+    <sheet name="FlightsWithHotelsPositive" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>One-way</t>
   </si>
   <si>
-    <t>Bangalore</t>
+    <t>OneWayHotels</t>
+  </si>
+  <si>
+    <t>Origin</t>
+  </si>
+  <si>
+    <t>Destination</t>
+  </si>
+  <si>
+    <t>(Date in dd/mm/yyyy format)</t>
   </si>
   <si>
     <t>Mumbai</t>
   </si>
   <si>
-    <t>Bhubaneswar</t>
+    <t>02/12/2019</t>
+  </si>
+  <si>
+    <t>Departure Date (in dd/mm/yyyy)</t>
   </si>
   <si>
     <t>Hyderabad</t>
   </si>
   <si>
+    <t>12/01/2020</t>
+  </si>
+  <si>
+    <t>Hotel Check-in Date (in dd/mm/yyyy)</t>
+  </si>
+  <si>
     <t>New Delhi</t>
   </si>
   <si>
     <t>Chennai</t>
   </si>
   <si>
-    <t>02/09/2019</t>
-  </si>
-  <si>
-    <t>12/09/2019</t>
-  </si>
-  <si>
-    <t>25/08/2019</t>
-  </si>
-  <si>
-    <t>02/08/2019</t>
+    <t>Hotel Check-out Date (in dd/mm/yyyy)</t>
+  </si>
+  <si>
+    <t>25/11/2019</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>16/12/2019</t>
+  </si>
+  <si>
+    <t>17/12/2019</t>
+  </si>
+  <si>
+    <t>19/12/2019</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>07/12/2019</t>
+  </si>
+  <si>
+    <t>Bhubaneshwar</t>
+  </si>
+  <si>
+    <t>Bengaluru</t>
+  </si>
+  <si>
+    <t>25/12/2019</t>
+  </si>
+  <si>
+    <t>Trivandrum</t>
+  </si>
+  <si>
+    <t>09/11/2019</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -93,9 +146,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -114,20 +173,20 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Sheets">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="5B9BD5"/>
@@ -151,79 +210,19 @@
         <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="0563C1"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Calibri"/>
+        <a:cs typeface="Calibri"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Calibri"/>
+        <a:cs typeface="Calibri"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -366,96 +365,1175 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="24.5" customWidth="1"/>
+    <col min="5" max="26" width="7.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E7" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="68" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="70" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="71" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="72" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="73" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="77" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="96" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="97" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="98" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="99" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="100" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="101" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="102" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="103" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="104" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="105" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="106" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="107" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="108" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="109" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="110" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="111" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="112" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.453125" customWidth="1"/>
-    <col min="3" max="3" width="17.81640625" customWidth="1"/>
-    <col min="4" max="4" width="15.7265625" customWidth="1"/>
+    <col min="4" max="4" width="31.4140625" customWidth="1"/>
+    <col min="5" max="5" width="29" customWidth="1"/>
+    <col min="6" max="6" width="28.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B2" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="7">
+        <v>43817</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G4" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E7" t="s">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Expedia_automation/Data_sheets/Data_sheets_expedia.xlsx
+++ b/Expedia_automation/Data_sheets/Data_sheets_expedia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Selenium\Selenium projects\Expedia_automation\Data_sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E08E5643-6BB5-44A4-8D72-793192AA5D9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7992DB3-2AD1-4F77-8CF5-C99A8A47A01F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FlightsOnlyPositive" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
   <si>
     <t>One-way</t>
   </si>
@@ -47,18 +47,12 @@
     <t>Departure Date (in dd/mm/yyyy)</t>
   </si>
   <si>
-    <t>Hyderabad</t>
-  </si>
-  <si>
     <t>12/01/2020</t>
   </si>
   <si>
     <t>Hotel Check-in Date (in dd/mm/yyyy)</t>
   </si>
   <si>
-    <t>New Delhi</t>
-  </si>
-  <si>
     <t>Chennai</t>
   </si>
   <si>
@@ -98,14 +92,36 @@
     <t>Trivandrum</t>
   </si>
   <si>
-    <t>09/11/2019</t>
+    <t>18/12/2019</t>
+  </si>
+  <si>
+    <t>new york</t>
+  </si>
+  <si>
+    <t>hyderabad</t>
+  </si>
+  <si>
+    <t>mumbai</t>
+  </si>
+  <si>
+    <t>delhi</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>09/01/2020</t>
+  </si>
+  <si>
+    <t>Instruction - Put the start tag (One-way) before the first column and the first row to be used and the end tag (One-way) after the last column and last row to be used.
+Only use future dates here.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,6 +140,16 @@
     <font>
       <sz val="11"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -146,7 +172,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -154,7 +180,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -370,9 +399,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1000"/>
+  <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -380,10 +409,13 @@
     <col min="2" max="2" width="12.6640625" customWidth="1"/>
     <col min="3" max="3" width="15.6640625" customWidth="1"/>
     <col min="4" max="4" width="24.5" customWidth="1"/>
-    <col min="5" max="26" width="7.6640625" customWidth="1"/>
+    <col min="5" max="6" width="7.6640625" customWidth="1"/>
+    <col min="7" max="7" width="24.4140625" customWidth="1"/>
+    <col min="8" max="8" width="26.33203125" customWidth="1"/>
+    <col min="9" max="26" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -397,9 +429,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -408,64 +440,72 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="4" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>14</v>
+    <row r="6" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E7" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G12" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="8"/>
+    </row>
+    <row r="13" spans="1:8" ht="46" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+    </row>
+    <row r="14" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1451,6 +1491,9 @@
     <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G12:H13"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
@@ -1461,20 +1504,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="31.4140625" customWidth="1"/>
     <col min="5" max="5" width="29" customWidth="1"/>
     <col min="6" max="6" width="28.6640625" customWidth="1"/>
+    <col min="9" max="9" width="19.83203125" customWidth="1"/>
+    <col min="10" max="10" width="18.9140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1488,52 +1531,84 @@
         <v>7</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="D2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="7">
-        <v>43817</v>
+        <v>14</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="G4" s="2" t="s">
+    <row r="4" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="G5" s="2" t="s">
         <v>1</v>
       </c>
+    </row>
+    <row r="11" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I11" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="8"/>
+    </row>
+    <row r="12" spans="1:10" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I11:J12"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Expedia_automation/Data_sheets/Data_sheets_expedia.xlsx
+++ b/Expedia_automation/Data_sheets/Data_sheets_expedia.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Selenium\Selenium projects\Expedia_automation\Data_sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7992DB3-2AD1-4F77-8CF5-C99A8A47A01F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA53B4B4-3945-401A-856B-DD34426D2F15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="FlightsOnlyPositive" sheetId="1" r:id="rId1"/>
-    <sheet name="FlightsWithHotelsPositive" sheetId="2" r:id="rId2"/>
+    <sheet name="FlightsOnlyPositive" sheetId="3" r:id="rId1"/>
+    <sheet name="FlightsOnlyPosWAge" sheetId="1" r:id="rId2"/>
+    <sheet name="FlightsWithHotelsPositive" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="42">
   <si>
     <t>One-way</t>
   </si>
@@ -41,15 +42,9 @@
     <t>Mumbai</t>
   </si>
   <si>
-    <t>02/12/2019</t>
-  </si>
-  <si>
     <t>Departure Date (in dd/mm/yyyy)</t>
   </si>
   <si>
-    <t>12/01/2020</t>
-  </si>
-  <si>
     <t>Hotel Check-in Date (in dd/mm/yyyy)</t>
   </si>
   <si>
@@ -59,21 +54,9 @@
     <t>Hotel Check-out Date (in dd/mm/yyyy)</t>
   </si>
   <si>
-    <t>25/11/2019</t>
-  </si>
-  <si>
     <t>Washington</t>
   </si>
   <si>
-    <t>16/12/2019</t>
-  </si>
-  <si>
-    <t>17/12/2019</t>
-  </si>
-  <si>
-    <t>19/12/2019</t>
-  </si>
-  <si>
     <t>London</t>
   </si>
   <si>
@@ -86,15 +69,9 @@
     <t>Bengaluru</t>
   </si>
   <si>
-    <t>25/12/2019</t>
-  </si>
-  <si>
     <t>Trivandrum</t>
   </si>
   <si>
-    <t>18/12/2019</t>
-  </si>
-  <si>
     <t>new york</t>
   </si>
   <si>
@@ -108,29 +85,94 @@
   </si>
   <si>
     <t>Delhi</t>
-  </si>
-  <si>
-    <t>09/01/2020</t>
   </si>
   <si>
     <t>Instruction - Put the start tag (One-way) before the first column and the first row to be used and the end tag (One-way) after the last column and last row to be used.
 Only use future dates here.</t>
+  </si>
+  <si>
+    <t>AdultNos</t>
+  </si>
+  <si>
+    <t>ChildrenNos</t>
+  </si>
+  <si>
+    <t>InfantNos</t>
+  </si>
+  <si>
+    <t>ChildrenAges</t>
+  </si>
+  <si>
+    <t>InfantAges</t>
+  </si>
+  <si>
+    <t>Under1,1</t>
+  </si>
+  <si>
+    <t>2,4,8</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Instruction - Put the start tag (One-way) before the first column and the first row to be used and the end tag (One-way) after the last column and last row to be used.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Only use future dates here.</t>
+    </r>
+  </si>
+  <si>
+    <t>03/09/2020</t>
+  </si>
+  <si>
+    <t>07/12/2020</t>
+  </si>
+  <si>
+    <t>04/09/2020</t>
+  </si>
+  <si>
+    <t>06/09/2020</t>
+  </si>
+  <si>
+    <t>20 Sep 2020</t>
+  </si>
+  <si>
+    <t>OneWayAge</t>
+  </si>
+  <si>
+    <t>25 Sep 2020</t>
+  </si>
+  <si>
+    <t>01 Jan 2021</t>
+  </si>
+  <si>
+    <t>27 Dec 2020</t>
+  </si>
+  <si>
+    <t>19 Nov 2020</t>
+  </si>
+  <si>
+    <t>7 Jan 2021</t>
+  </si>
+  <si>
+    <t>12 Jan 2021</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <sz val="11"/>
@@ -149,6 +191,24 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -176,12 +236,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -398,26 +460,178 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD5D1D3A-5071-4574-BCCD-29CCFD49D1EA}">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="2" max="7" width="13.08203125" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1000"/>
+  <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" customWidth="1"/>
     <col min="3" max="3" width="15.6640625" customWidth="1"/>
     <col min="4" max="4" width="24.5" customWidth="1"/>
-    <col min="5" max="6" width="7.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.58203125" customWidth="1"/>
+    <col min="6" max="6" width="16.25" customWidth="1"/>
     <col min="7" max="7" width="24.4140625" customWidth="1"/>
     <col min="8" max="8" width="26.33203125" customWidth="1"/>
-    <col min="9" max="26" width="7.6640625" customWidth="1"/>
+    <col min="9" max="10" width="27.25" customWidth="1"/>
+    <col min="11" max="11" width="26.4140625" customWidth="1"/>
+    <col min="12" max="12" width="26" customWidth="1"/>
+    <col min="13" max="26" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -428,84 +642,150 @@
       <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="1" t="s">
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J7" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I8" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E7" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G12" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="8"/>
-    </row>
-    <row r="13" spans="1:8" ht="46" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-    </row>
-    <row r="14" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" spans="1:10" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:10" ht="46" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1492,32 +1772,35 @@
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="G12:H13"/>
+    <mergeCell ref="I8:J9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="31.4140625" customWidth="1"/>
     <col min="5" max="5" width="29" customWidth="1"/>
     <col min="6" max="6" width="28.6640625" customWidth="1"/>
+    <col min="8" max="8" width="25.5" customWidth="1"/>
     <col min="9" max="9" width="19.83203125" customWidth="1"/>
     <col min="10" max="10" width="18.9140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1527,87 +1810,86 @@
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="G5" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I11" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11" s="8"/>
-    </row>
-    <row r="12" spans="1:10" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
+        <v>19</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="14" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="I11:J12"/>
+    <mergeCell ref="G11:H12"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Expedia_automation/Data_sheets/Data_sheets_expedia.xlsx
+++ b/Expedia_automation/Data_sheets/Data_sheets_expedia.xlsx
@@ -8,24 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Selenium\Selenium projects\Expedia_automation\Data_sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA53B4B4-3945-401A-856B-DD34426D2F15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C14C94-748E-4C80-9385-479CDAD158C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="FlightsOnlyPositive" sheetId="3" r:id="rId1"/>
-    <sheet name="FlightsOnlyPosWAge" sheetId="1" r:id="rId2"/>
-    <sheet name="FlightsWithHotelsPositive" sheetId="2" r:id="rId3"/>
+    <sheet name="OneWayFlightsPosTravellers" sheetId="3" r:id="rId1"/>
+    <sheet name="OneWayFlightsPosDefaultDate" sheetId="4" r:id="rId2"/>
+    <sheet name="OneWayFlightsPosDate" sheetId="5" r:id="rId3"/>
+    <sheet name="FlightsOnlyPosWAge" sheetId="1" r:id="rId4"/>
+    <sheet name="FlightsWithHotelsPositive" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="42">
-  <si>
-    <t>One-way</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="47">
   <si>
     <t>OneWayHotels</t>
   </si>
@@ -162,6 +161,24 @@
   </si>
   <si>
     <t>12 Jan 2021</t>
+  </si>
+  <si>
+    <t>OneWayFlightsTravellers</t>
+  </si>
+  <si>
+    <t>Kozhikode</t>
+  </si>
+  <si>
+    <t>Dubai</t>
+  </si>
+  <si>
+    <t>OneWayFlightsPos</t>
+  </si>
+  <si>
+    <t>OneWayFlightsPosDate</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
 </sst>
 </file>
@@ -463,141 +480,237 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD5D1D3A-5071-4574-BCCD-29CCFD49D1EA}">
   <dimension ref="A1:H6"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.33203125" customWidth="1"/>
+    <col min="2" max="7" width="13.08203125" customWidth="1"/>
+    <col min="8" max="8" width="22.4140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA583240-635E-4608-A31D-5DD5BA037B77}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.58203125" customWidth="1"/>
+    <col min="2" max="2" width="12.08203125" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A0505F9-B8CF-4B2F-A121-89B24FCC7D64}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="7" width="13.08203125" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" customWidth="1"/>
+    <col min="1" max="1" width="22.9140625" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="4" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+    <row r="1" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>45</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3">
-        <v>4</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -605,7 +718,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J1000"/>
   <sheetViews>
@@ -631,42 +744,42 @@
   <sheetData>
     <row r="1" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="E1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -678,21 +791,21 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E3">
         <v>6</v>
@@ -706,13 +819,13 @@
     </row>
     <row r="4" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E4">
         <v>4</v>
@@ -726,13 +839,13 @@
     </row>
     <row r="5" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -746,13 +859,13 @@
     </row>
     <row r="6" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -766,12 +879,12 @@
     </row>
     <row r="7" spans="1:10" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I8" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J8" s="7"/>
     </row>
@@ -1779,7 +1892,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -1802,82 +1915,82 @@
   <sheetData>
     <row r="1" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="F1" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="F3" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G11" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H11" s="7"/>
     </row>

--- a/Expedia_automation/Data_sheets/Data_sheets_expedia.xlsx
+++ b/Expedia_automation/Data_sheets/Data_sheets_expedia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Selenium\Selenium projects\Expedia_automation\Data_sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C14C94-748E-4C80-9385-479CDAD158C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27AC57E6-89CB-4BBB-8AB0-475C0471472A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -672,7 +672,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/Expedia_automation/Data_sheets/Data_sheets_expedia.xlsx
+++ b/Expedia_automation/Data_sheets/Data_sheets_expedia.xlsx
@@ -1,30 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Selenium\Selenium projects\Expedia_automation\Data_sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27AC57E6-89CB-4BBB-8AB0-475C0471472A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33914EB-512A-4598-BF26-1DEF53CC95EA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="OneWayFlightsPosTravellers" sheetId="3" r:id="rId1"/>
-    <sheet name="OneWayFlightsPosDefaultDate" sheetId="4" r:id="rId2"/>
-    <sheet name="OneWayFlightsPosDate" sheetId="5" r:id="rId3"/>
-    <sheet name="FlightsOnlyPosWAge" sheetId="1" r:id="rId4"/>
-    <sheet name="FlightsWithHotelsPositive" sheetId="2" r:id="rId5"/>
+    <sheet name="Important Information" sheetId="6" r:id="rId1"/>
+    <sheet name="OneWayFlightsPosTravellers" sheetId="3" r:id="rId2"/>
+    <sheet name="OneWayFlightsPosDefaultDate" sheetId="4" r:id="rId3"/>
+    <sheet name="OneWayFlightsPosDate" sheetId="5" r:id="rId4"/>
+    <sheet name="FlightsOnlyPosWAge" sheetId="1" r:id="rId5"/>
+    <sheet name="FlightsWithHotelsPositive" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="62">
   <si>
     <t>OneWayHotels</t>
   </si>
@@ -179,6 +180,63 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">All sheets with the word 'Pos' within their tab name indicate test data for positive test cases. If one of the columns in any of those sheets contains date, ensure to provide only current or future dates. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Don't provide past dates else the test will fail.</t>
+    </r>
+  </si>
+  <si>
+    <t>Hyderabad</t>
+  </si>
+  <si>
+    <t>New Delhi</t>
+  </si>
+  <si>
+    <t>Bangkok</t>
+  </si>
+  <si>
+    <t>Kolkata</t>
+  </si>
+  <si>
+    <t>Tokyo</t>
+  </si>
+  <si>
+    <t>Chicago</t>
+  </si>
+  <si>
+    <t>Bangalore</t>
+  </si>
+  <si>
+    <t>Bombay</t>
+  </si>
+  <si>
+    <t>15 Feb 2021</t>
+  </si>
+  <si>
+    <t>Bhubaneswar</t>
+  </si>
+  <si>
+    <t>6 Jun 2021</t>
+  </si>
+  <si>
+    <t>3 May 2021</t>
+  </si>
+  <si>
+    <t>6 Feb 2021</t>
+  </si>
+  <si>
+    <t>10 Feb 2021</t>
   </si>
 </sst>
 </file>
@@ -249,7 +307,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -257,6 +315,13 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -477,6 +542,54 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03D385C2-6E58-432F-BCCC-55E697E10F02}">
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="42.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9"/>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9"/>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9"/>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9"/>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="9"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:A8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD5D1D3A-5071-4574-BCCD-29CCFD49D1EA}">
   <dimension ref="A1:H6"/>
   <sheetViews>
@@ -622,12 +735,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA583240-635E-4608-A31D-5DD5BA037B77}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -658,7 +771,31 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D3" t="s">
+      <c r="B3" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
         <v>44</v>
       </c>
     </row>
@@ -667,13 +804,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A0505F9-B8CF-4B2F-A121-89B24FCC7D64}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
@@ -705,11 +840,55 @@
         <v>43</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B5" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B6" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
         <v>45</v>
       </c>
     </row>
@@ -718,7 +897,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J1000"/>
   <sheetViews>
@@ -883,14 +1062,14 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="7"/>
+      <c r="J8" s="10"/>
     </row>
     <row r="9" spans="1:10" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
     </row>
     <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1892,7 +2071,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -1989,14 +2168,14 @@
     </row>
     <row r="5" spans="1:8" ht="14" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="7"/>
+      <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Expedia_automation/Data_sheets/Data_sheets_expedia.xlsx
+++ b/Expedia_automation/Data_sheets/Data_sheets_expedia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Selenium\Selenium projects\Expedia_automation\Data_sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33914EB-512A-4598-BF26-1DEF53CC95EA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69DBE30A-916A-4CE4-8D54-BAEFC735D5B6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -221,9 +221,6 @@
     <t>Bombay</t>
   </si>
   <si>
-    <t>15 Feb 2021</t>
-  </si>
-  <si>
     <t>Bhubaneswar</t>
   </si>
   <si>
@@ -233,10 +230,13 @@
     <t>3 May 2021</t>
   </si>
   <si>
-    <t>6 Feb 2021</t>
-  </si>
-  <si>
-    <t>10 Feb 2021</t>
+    <t>20 Feb 2021</t>
+  </si>
+  <si>
+    <t>25 Feb 2021</t>
+  </si>
+  <si>
+    <t>7 Mar 2021</t>
   </si>
 </sst>
 </file>
@@ -808,7 +808,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A0505F9-B8CF-4B2F-A121-89B24FCC7D64}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
@@ -840,7 +842,7 @@
         <v>43</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
@@ -851,7 +853,7 @@
         <v>14</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
@@ -862,7 +864,7 @@
         <v>53</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
@@ -873,18 +875,18 @@
         <v>55</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B6" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">

--- a/Expedia_automation/Data_sheets/Data_sheets_expedia.xlsx
+++ b/Expedia_automation/Data_sheets/Data_sheets_expedia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Selenium\Selenium projects\Expedia_automation\Data_sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69DBE30A-916A-4CE4-8D54-BAEFC735D5B6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{869A225A-D619-491E-95B3-F84D817323F9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Important Information" sheetId="6" r:id="rId1"/>
@@ -739,7 +739,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA583240-635E-4608-A31D-5DD5BA037B77}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -808,9 +808,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A0505F9-B8CF-4B2F-A121-89B24FCC7D64}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
